--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd80-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd80-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="H2">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="I2">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="J2">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.100457</v>
       </c>
       <c r="O2">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P2">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q2">
-        <v>0.04388911078650001</v>
+        <v>0.02584971243983334</v>
       </c>
       <c r="R2">
-        <v>0.263334664719</v>
+        <v>0.155098274639</v>
       </c>
       <c r="S2">
-        <v>0.000115757198485101</v>
+        <v>4.316563372895089E-05</v>
       </c>
       <c r="T2">
-        <v>7.949108554897623E-05</v>
+        <v>2.917806772083788E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="H3">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="I3">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="J3">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N3">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="O3">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P3">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q3">
-        <v>6.143298079432501</v>
+        <v>1.796120013136167</v>
       </c>
       <c r="R3">
-        <v>36.859788476595</v>
+        <v>10.776720078817</v>
       </c>
       <c r="S3">
-        <v>0.01620290232338786</v>
+        <v>0.002999285148750927</v>
       </c>
       <c r="T3">
-        <v>0.0111266194378046</v>
+        <v>0.002027384695285113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="H4">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="I4">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="J4">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0567275</v>
+        <v>0.1031065</v>
       </c>
       <c r="N4">
-        <v>0.113455</v>
+        <v>0.206213</v>
       </c>
       <c r="O4">
-        <v>0.005389122887534366</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P4">
-        <v>0.00359921412743334</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q4">
-        <v>0.07435179824625</v>
+        <v>0.07959445461275</v>
       </c>
       <c r="R4">
-        <v>0.297407192985</v>
+        <v>0.318377818451</v>
       </c>
       <c r="S4">
-        <v>0.0001961023067699683</v>
+        <v>0.0001329123131511216</v>
       </c>
       <c r="T4">
-        <v>8.97763332665628E-05</v>
+        <v>5.989524750805958E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3106835</v>
+        <v>0.7719635</v>
       </c>
       <c r="H5">
-        <v>2.621367</v>
+        <v>1.543927</v>
       </c>
       <c r="I5">
-        <v>0.03638853870331562</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="J5">
-        <v>0.02494331542607714</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.748987333333333</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N5">
-        <v>17.246962</v>
+        <v>3.893441</v>
       </c>
       <c r="O5">
-        <v>0.5461548493801388</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P5">
-        <v>0.5471377135049664</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q5">
-        <v>7.535102839509</v>
+        <v>1.001864780467833</v>
       </c>
       <c r="R5">
-        <v>45.21061703705401</v>
+        <v>6.011188682807</v>
       </c>
       <c r="S5">
-        <v>0.01987377687467269</v>
+        <v>0.00167298294943389</v>
       </c>
       <c r="T5">
-        <v>0.013647428569457</v>
+        <v>0.001130862808615495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.420479333333333</v>
+        <v>0.7719635</v>
       </c>
       <c r="H6">
-        <v>4.261438</v>
+        <v>1.543927</v>
       </c>
       <c r="I6">
-        <v>0.03943680316282303</v>
+        <v>0.008462226595245191</v>
       </c>
       <c r="J6">
-        <v>0.04054922191462367</v>
+        <v>0.005690144943763121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03348566666666667</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N6">
-        <v>0.100457</v>
+        <v>8.410385</v>
       </c>
       <c r="O6">
-        <v>0.00318114446498929</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P6">
-        <v>0.003186869275039187</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q6">
-        <v>0.0475656974628889</v>
+        <v>2.164170080315833</v>
       </c>
       <c r="R6">
-        <v>0.428091277166</v>
+        <v>12.985020481895</v>
       </c>
       <c r="S6">
-        <v>0.0001254541680982866</v>
+        <v>0.003613880550180302</v>
       </c>
       <c r="T6">
-        <v>0.0001292250694464599</v>
+        <v>0.002442824124633616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>4.261438</v>
       </c>
       <c r="I7">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="J7">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>4.687095</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N7">
-        <v>14.061285</v>
+        <v>0.100457</v>
       </c>
       <c r="O7">
-        <v>0.4452748832673376</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P7">
-        <v>0.446076203092561</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q7">
-        <v>6.657921580870001</v>
+        <v>0.0475656974628889</v>
       </c>
       <c r="R7">
-        <v>59.92129422783</v>
+        <v>0.428091277166</v>
       </c>
       <c r="S7">
-        <v>0.01756021792476299</v>
+        <v>7.942848414751605E-05</v>
       </c>
       <c r="T7">
-        <v>0.01808804295003299</v>
+        <v>8.053523680339287E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>4.261438</v>
       </c>
       <c r="I8">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="J8">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0567275</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N8">
-        <v>0.113455</v>
+        <v>6.980071</v>
       </c>
       <c r="O8">
-        <v>0.005389122887534366</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P8">
-        <v>0.00359921412743334</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q8">
-        <v>0.08058024138166667</v>
+        <v>3.305015533566444</v>
       </c>
       <c r="R8">
-        <v>0.48348144829</v>
+        <v>29.745139802098</v>
       </c>
       <c r="S8">
-        <v>0.0002125297785359573</v>
+        <v>0.005518943018127521</v>
       </c>
       <c r="T8">
-        <v>0.0001459453323715431</v>
+        <v>0.005595843703171458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>4.261438</v>
       </c>
       <c r="I9">
-        <v>0.03943680316282303</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="J9">
-        <v>0.04054922191462367</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.748987333333333</v>
+        <v>0.1031065</v>
       </c>
       <c r="N9">
-        <v>17.246962</v>
+        <v>0.206213</v>
       </c>
       <c r="O9">
-        <v>0.5461548493801388</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P9">
-        <v>0.5471377135049664</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q9">
-        <v>8.166317694595111</v>
+        <v>0.1464606523823333</v>
       </c>
       <c r="R9">
-        <v>73.496859251356</v>
+        <v>0.8787639142939999</v>
       </c>
       <c r="S9">
-        <v>0.02153860129142579</v>
+        <v>0.0002445701046444507</v>
       </c>
       <c r="T9">
-        <v>0.02218600856277267</v>
+        <v>0.0001653186217679012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.64166233333333</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H10">
-        <v>52.924987</v>
+        <v>4.261438</v>
       </c>
       <c r="I10">
-        <v>0.4897859114021998</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="J10">
-        <v>0.5036016111677731</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03348566666666667</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N10">
-        <v>0.100457</v>
+        <v>3.893441</v>
       </c>
       <c r="O10">
-        <v>0.00318114446498929</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P10">
-        <v>0.003186869275039187</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q10">
-        <v>0.5907428243398889</v>
+        <v>1.843517492017556</v>
       </c>
       <c r="R10">
-        <v>5.316685419059</v>
+        <v>16.591657428158</v>
       </c>
       <c r="S10">
-        <v>0.001558079741086843</v>
+        <v>0.003078432729902237</v>
       </c>
       <c r="T10">
-        <v>0.001604912501490808</v>
+        <v>0.003121327462646095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.64166233333333</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H11">
-        <v>52.924987</v>
+        <v>4.261438</v>
       </c>
       <c r="I11">
-        <v>0.4897859114021998</v>
+        <v>0.01557122583195901</v>
       </c>
       <c r="J11">
-        <v>0.5036016111677731</v>
+        <v>0.01570553522858271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.687095</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N11">
-        <v>14.061285</v>
+        <v>8.410385</v>
       </c>
       <c r="O11">
-        <v>0.4452748832673376</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P11">
-        <v>0.446076203092561</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q11">
-        <v>82.688147314255</v>
+        <v>3.982259359292223</v>
       </c>
       <c r="R11">
-        <v>744.193325828295</v>
+        <v>35.84033423363</v>
       </c>
       <c r="S11">
-        <v>0.2180893645256011</v>
+        <v>0.00664985149513729</v>
       </c>
       <c r="T11">
-        <v>0.2246446945810165</v>
+        <v>0.006742510204193867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="H12">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="I12">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="J12">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0567275</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N12">
-        <v>0.113455</v>
+        <v>0.100457</v>
       </c>
       <c r="O12">
-        <v>0.005389122887534366</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P12">
-        <v>0.00359921412743334</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q12">
-        <v>1.000767400014167</v>
+        <v>0.861697141347</v>
       </c>
       <c r="R12">
-        <v>6.004604400085</v>
+        <v>7.755274272123001</v>
       </c>
       <c r="S12">
-        <v>0.002639516465129474</v>
+        <v>0.001438921352616348</v>
       </c>
       <c r="T12">
-        <v>0.001812570033513241</v>
+        <v>0.001458971213138026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.64166233333333</v>
+        <v>25.733313</v>
       </c>
       <c r="H13">
-        <v>52.924987</v>
+        <v>77.199939</v>
       </c>
       <c r="I13">
-        <v>0.4897859114021998</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="J13">
-        <v>0.5036016111677731</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.748987333333333</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N13">
-        <v>17.246962</v>
+        <v>6.980071</v>
       </c>
       <c r="O13">
-        <v>0.5461548493801388</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P13">
-        <v>0.5471377135049664</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q13">
-        <v>101.4216932932771</v>
+        <v>59.87345060174099</v>
       </c>
       <c r="R13">
-        <v>912.7952396394941</v>
+        <v>538.8610554156689</v>
       </c>
       <c r="S13">
-        <v>0.2674989506703825</v>
+        <v>0.099980819700749</v>
       </c>
       <c r="T13">
-        <v>0.2755394340517526</v>
+        <v>0.101373947606036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.733313</v>
+      </c>
+      <c r="H14">
+        <v>77.199939</v>
+      </c>
+      <c r="I14">
+        <v>0.2820873339897143</v>
+      </c>
+      <c r="J14">
+        <v>0.284520474452271</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.65374</v>
-      </c>
-      <c r="H14">
-        <v>3.30748</v>
-      </c>
-      <c r="I14">
-        <v>0.04591282486978829</v>
-      </c>
-      <c r="J14">
-        <v>0.03147194456382552</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03348566666666667</v>
+        <v>0.1031065</v>
       </c>
       <c r="N14">
-        <v>0.100457</v>
+        <v>0.206213</v>
       </c>
       <c r="O14">
-        <v>0.00318114446498929</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P14">
-        <v>0.003186869275039187</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q14">
-        <v>0.05537658639333334</v>
+        <v>2.6532718368345</v>
       </c>
       <c r="R14">
-        <v>0.33225951836</v>
+        <v>15.919631021007</v>
       </c>
       <c r="S14">
-        <v>0.0001460553287065497</v>
+        <v>0.004430616416283707</v>
       </c>
       <c r="T14">
-        <v>0.0001002969731561921</v>
+        <v>0.002994901607402488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.65374</v>
+        <v>25.733313</v>
       </c>
       <c r="H15">
-        <v>3.30748</v>
+        <v>77.199939</v>
       </c>
       <c r="I15">
-        <v>0.04591282486978829</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="J15">
-        <v>0.03147194456382552</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.687095</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N15">
-        <v>14.061285</v>
+        <v>3.893441</v>
       </c>
       <c r="O15">
-        <v>0.4452748832673376</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P15">
-        <v>0.446076203092561</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q15">
-        <v>7.751236485300001</v>
+        <v>33.397045300011</v>
       </c>
       <c r="R15">
-        <v>46.5074189118</v>
+        <v>300.573407700099</v>
       </c>
       <c r="S15">
-        <v>0.0204438277343687</v>
+        <v>0.05576869098272839</v>
       </c>
       <c r="T15">
-        <v>0.01403888553497085</v>
+        <v>0.05654576922515435</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.65374</v>
+        <v>25.733313</v>
       </c>
       <c r="H16">
-        <v>3.30748</v>
+        <v>77.199939</v>
       </c>
       <c r="I16">
-        <v>0.04591282486978829</v>
+        <v>0.2820873339897143</v>
       </c>
       <c r="J16">
-        <v>0.03147194456382552</v>
+        <v>0.284520474452271</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0567275</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N16">
-        <v>0.113455</v>
+        <v>8.410385</v>
       </c>
       <c r="O16">
-        <v>0.005389122887534366</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P16">
-        <v>0.00359921412743334</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q16">
-        <v>0.09381253585</v>
+        <v>72.14235655183499</v>
       </c>
       <c r="R16">
-        <v>0.3752501434</v>
+        <v>649.281208966515</v>
       </c>
       <c r="S16">
-        <v>0.0002474298553371332</v>
+        <v>0.1204682855373368</v>
       </c>
       <c r="T16">
-        <v>0.0001132742674919197</v>
+        <v>0.1221468848005401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.65374</v>
+        <v>1.56842</v>
       </c>
       <c r="H17">
-        <v>3.30748</v>
+        <v>3.13684</v>
       </c>
       <c r="I17">
-        <v>0.04591282486978829</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="J17">
-        <v>0.03147194456382552</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>5.748987333333333</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N17">
-        <v>17.246962</v>
+        <v>0.100457</v>
       </c>
       <c r="O17">
-        <v>0.5461548493801388</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P17">
-        <v>0.5471377135049664</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q17">
-        <v>9.507330312626666</v>
+        <v>0.05251958931333334</v>
       </c>
       <c r="R17">
-        <v>57.04398187576</v>
+        <v>0.31511753588</v>
       </c>
       <c r="S17">
-        <v>0.02507551195137592</v>
+        <v>8.770083462904806E-05</v>
       </c>
       <c r="T17">
-        <v>0.01721948778820655</v>
+        <v>5.928190254424794E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5283693333333334</v>
+        <v>1.56842</v>
       </c>
       <c r="H18">
-        <v>1.585108</v>
+        <v>3.13684</v>
       </c>
       <c r="I18">
-        <v>0.01466913098062581</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="J18">
-        <v>0.01508291239967478</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03348566666666667</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N18">
-        <v>0.100457</v>
+        <v>6.980071</v>
       </c>
       <c r="O18">
-        <v>0.00318114446498929</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P18">
-        <v>0.003186869275039187</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q18">
-        <v>0.01769279937288889</v>
+        <v>3.649227652606666</v>
       </c>
       <c r="R18">
-        <v>0.159235194356</v>
+        <v>21.89536591564</v>
       </c>
       <c r="S18">
-        <v>4.666462482522071E-05</v>
+        <v>0.00609373216868923</v>
       </c>
       <c r="T18">
-        <v>4.806727010463113E-05</v>
+        <v>0.004119094625301684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5283693333333334</v>
+        <v>1.56842</v>
       </c>
       <c r="H19">
-        <v>1.585108</v>
+        <v>3.13684</v>
       </c>
       <c r="I19">
-        <v>0.01466913098062581</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="J19">
-        <v>0.01508291239967478</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.687095</v>
+        <v>0.1031065</v>
       </c>
       <c r="N19">
-        <v>14.061285</v>
+        <v>0.206213</v>
       </c>
       <c r="O19">
-        <v>0.4452748832673376</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P19">
-        <v>0.446076203092561</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q19">
-        <v>2.47651726042</v>
+        <v>0.16171429673</v>
       </c>
       <c r="R19">
-        <v>22.28865534378</v>
+        <v>0.6468571869199999</v>
       </c>
       <c r="S19">
-        <v>0.006531795585031443</v>
+        <v>0.0002700416926350561</v>
       </c>
       <c r="T19">
-        <v>0.006728128294824633</v>
+        <v>0.0001216908624521636</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5283693333333334</v>
+        <v>1.56842</v>
       </c>
       <c r="H20">
-        <v>1.585108</v>
+        <v>3.13684</v>
       </c>
       <c r="I20">
-        <v>0.01466913098062581</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="J20">
-        <v>0.01508291239967478</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0567275</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N20">
-        <v>0.113455</v>
+        <v>3.893441</v>
       </c>
       <c r="O20">
-        <v>0.005389122887534366</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P20">
-        <v>0.00359921412743334</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q20">
-        <v>0.02997307135666667</v>
+        <v>2.035516911073333</v>
       </c>
       <c r="R20">
-        <v>0.17983842814</v>
+        <v>12.21310146644</v>
       </c>
       <c r="S20">
-        <v>7.905374950792999E-05</v>
+        <v>0.003399046609782847</v>
       </c>
       <c r="T20">
-        <v>5.428663139174896E-05</v>
+        <v>0.002297605840546495</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5283693333333334</v>
+        <v>1.56842</v>
       </c>
       <c r="H21">
-        <v>1.585108</v>
+        <v>3.13684</v>
       </c>
       <c r="I21">
-        <v>0.01466913098062581</v>
+        <v>0.01719294427329072</v>
       </c>
       <c r="J21">
-        <v>0.01508291239967478</v>
+        <v>0.01156082785351503</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.748987333333333</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N21">
-        <v>17.246962</v>
+        <v>8.410385</v>
       </c>
       <c r="O21">
-        <v>0.5461548493801388</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P21">
-        <v>0.5471377135049664</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q21">
-        <v>3.037588604655111</v>
+        <v>4.397005347233333</v>
       </c>
       <c r="R21">
-        <v>27.338297441896</v>
+        <v>26.3820320834</v>
       </c>
       <c r="S21">
-        <v>0.008011617021261217</v>
+        <v>0.007342422967554539</v>
       </c>
       <c r="T21">
-        <v>0.008252430203353766</v>
+        <v>0.004963154622670443</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.46419533333333</v>
+        <v>54.376824</v>
       </c>
       <c r="H22">
-        <v>40.39258599999999</v>
+        <v>163.130472</v>
       </c>
       <c r="I22">
-        <v>0.3738067908812474</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="J22">
-        <v>0.3843509945280258</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,27 +1807,27 @@
         <v>0.100457</v>
       </c>
       <c r="O22">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P22">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q22">
-        <v>0.4508575568668888</v>
+        <v>1.820844202856</v>
       </c>
       <c r="R22">
-        <v>4.057718011802</v>
+        <v>16.387597825704</v>
       </c>
       <c r="S22">
-        <v>0.001189133403787289</v>
+        <v>0.00304057130696934</v>
       </c>
       <c r="T22">
-        <v>0.00122487637529212</v>
+        <v>0.00308293848047754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.46419533333333</v>
+        <v>54.376824</v>
       </c>
       <c r="H23">
-        <v>40.39258599999999</v>
+        <v>163.130472</v>
       </c>
       <c r="I23">
-        <v>0.3738067908812474</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="J23">
-        <v>0.3843509945280258</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N23">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="O23">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P23">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q23">
-        <v>63.10796262588999</v>
+        <v>126.518030758168</v>
       </c>
       <c r="R23">
-        <v>567.9716636330099</v>
+        <v>1138.662276823512</v>
       </c>
       <c r="S23">
-        <v>0.1664467751741855</v>
+        <v>0.2112685388097274</v>
       </c>
       <c r="T23">
-        <v>0.1714498322939114</v>
+        <v>0.2142123444097011</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.46419533333333</v>
+        <v>54.376824</v>
       </c>
       <c r="H24">
-        <v>40.39258599999999</v>
+        <v>163.130472</v>
       </c>
       <c r="I24">
-        <v>0.3738067908812474</v>
+        <v>0.596076117870556</v>
       </c>
       <c r="J24">
-        <v>0.3843509945280258</v>
+        <v>0.6012175643178022</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0567275</v>
+        <v>0.1031065</v>
       </c>
       <c r="N24">
-        <v>0.113455</v>
+        <v>0.206213</v>
       </c>
       <c r="O24">
-        <v>0.005389122887534366</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P24">
-        <v>0.00359921412743334</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q24">
-        <v>0.7637901407716665</v>
+        <v>5.606604003755999</v>
       </c>
       <c r="R24">
-        <v>4.582740844629999</v>
+        <v>33.639624022536</v>
       </c>
       <c r="S24">
-        <v>0.002014490732253903</v>
+        <v>0.009362294279005968</v>
       </c>
       <c r="T24">
-        <v>0.001383361529398325</v>
+        <v>0.006328498689735061</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>54.376824</v>
+      </c>
+      <c r="H25">
+        <v>163.130472</v>
+      </c>
+      <c r="I25">
+        <v>0.596076117870556</v>
+      </c>
+      <c r="J25">
+        <v>0.6012175643178022</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.893441</v>
+      </c>
+      <c r="O25">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="P25">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="Q25">
+        <v>70.57098533712799</v>
+      </c>
+      <c r="R25">
+        <v>635.138868034152</v>
+      </c>
+      <c r="S25">
+        <v>0.1178443014421893</v>
+      </c>
+      <c r="T25">
+        <v>0.1194863382379422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>54.376824</v>
+      </c>
+      <c r="H26">
+        <v>163.130472</v>
+      </c>
+      <c r="I26">
+        <v>0.596076117870556</v>
+      </c>
+      <c r="J26">
+        <v>0.6012175643178022</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="N26">
+        <v>8.410385</v>
+      </c>
+      <c r="O26">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="P26">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="Q26">
+        <v>152.44334163908</v>
+      </c>
+      <c r="R26">
+        <v>1371.99007475172</v>
+      </c>
+      <c r="S26">
+        <v>0.254560412032664</v>
+      </c>
+      <c r="T26">
+        <v>0.2581074444999463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>13.46419533333333</v>
-      </c>
-      <c r="H25">
-        <v>40.39258599999999</v>
-      </c>
-      <c r="I25">
-        <v>0.3738067908812474</v>
-      </c>
-      <c r="J25">
-        <v>0.3843509945280258</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.748987333333333</v>
-      </c>
-      <c r="N25">
-        <v>17.246962</v>
-      </c>
-      <c r="O25">
-        <v>0.5461548493801388</v>
-      </c>
-      <c r="P25">
-        <v>0.5471377135049664</v>
-      </c>
-      <c r="Q25">
-        <v>77.40548842485909</v>
-      </c>
-      <c r="R25">
-        <v>696.6493958237319</v>
-      </c>
-      <c r="S25">
-        <v>0.2041563915710207</v>
-      </c>
-      <c r="T25">
-        <v>0.2102929243294239</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.353631333333333</v>
+      </c>
+      <c r="H27">
+        <v>22.060894</v>
+      </c>
+      <c r="I27">
+        <v>0.08061015143923474</v>
+      </c>
+      <c r="J27">
+        <v>0.0813054532040661</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.100457</v>
+      </c>
+      <c r="O27">
+        <v>0.005100978240550195</v>
+      </c>
+      <c r="P27">
+        <v>0.005127825039469251</v>
+      </c>
+      <c r="Q27">
+        <v>0.2462412476175556</v>
+      </c>
+      <c r="R27">
+        <v>2.216171228558</v>
+      </c>
+      <c r="S27">
+        <v>0.0004111906284589924</v>
+      </c>
+      <c r="T27">
+        <v>0.0004169201387852055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.353631333333333</v>
+      </c>
+      <c r="H28">
+        <v>22.060894</v>
+      </c>
+      <c r="I28">
+        <v>0.08061015143923474</v>
+      </c>
+      <c r="J28">
+        <v>0.0813054532040661</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.326690333333333</v>
+      </c>
+      <c r="N28">
+        <v>6.980071</v>
+      </c>
+      <c r="O28">
+        <v>0.3544321479687372</v>
+      </c>
+      <c r="P28">
+        <v>0.3562975487131128</v>
+      </c>
+      <c r="Q28">
+        <v>17.10962293816378</v>
+      </c>
+      <c r="R28">
+        <v>153.986606443474</v>
+      </c>
+      <c r="S28">
+        <v>0.02857082912269316</v>
+      </c>
+      <c r="T28">
+        <v>0.02896893367361745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.353631333333333</v>
+      </c>
+      <c r="H29">
+        <v>22.060894</v>
+      </c>
+      <c r="I29">
+        <v>0.08061015143923474</v>
+      </c>
+      <c r="J29">
+        <v>0.0813054532040661</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1031065</v>
+      </c>
+      <c r="N29">
+        <v>0.206213</v>
+      </c>
+      <c r="O29">
+        <v>0.01570654149415039</v>
+      </c>
+      <c r="P29">
+        <v>0.01052613740071944</v>
+      </c>
+      <c r="Q29">
+        <v>0.7582071890703332</v>
+      </c>
+      <c r="R29">
+        <v>4.549243134421999</v>
+      </c>
+      <c r="S29">
+        <v>0.001266106688430087</v>
+      </c>
+      <c r="T29">
+        <v>0.0008558323718537641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.353631333333333</v>
+      </c>
+      <c r="H30">
+        <v>22.060894</v>
+      </c>
+      <c r="I30">
+        <v>0.08061015143923474</v>
+      </c>
+      <c r="J30">
+        <v>0.0813054532040661</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.893441</v>
+      </c>
+      <c r="O30">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="P30">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="Q30">
+        <v>9.543643244028223</v>
+      </c>
+      <c r="R30">
+        <v>85.89278919625401</v>
+      </c>
+      <c r="S30">
+        <v>0.0159366340987488</v>
+      </c>
+      <c r="T30">
+        <v>0.01615869438736981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.353631333333333</v>
+      </c>
+      <c r="H31">
+        <v>22.060894</v>
+      </c>
+      <c r="I31">
+        <v>0.08061015143923474</v>
+      </c>
+      <c r="J31">
+        <v>0.0813054532040661</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="N31">
+        <v>8.410385</v>
+      </c>
+      <c r="O31">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="P31">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="Q31">
+        <v>20.61562355379889</v>
+      </c>
+      <c r="R31">
+        <v>185.54061198419</v>
+      </c>
+      <c r="S31">
+        <v>0.03442539090090369</v>
+      </c>
+      <c r="T31">
+        <v>0.03490507263243986</v>
       </c>
     </row>
   </sheetData>
